--- a/BQ25895_BMS/Hardware/Project Outputs for BQ25895_BMS_Module/BQ25895_BMS_Module_BOM_UPLOAD.xlsx
+++ b/BQ25895_BMS/Hardware/Project Outputs for BQ25895_BMS_Module/BQ25895_BMS_Module_BOM_UPLOAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Files\BQ25895_BMS\BQ25895_BMS\Hardware\Project Outputs for BQ25895_BMS_Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88549480-5744-4D58-BBED-31420A5248DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221FE728-3B65-4342-A850-9D07B53AA51A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{F7EEA39B-86C8-4295-B993-96B5F436FE9B}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>10µF ±10% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>C1, C3, C4, C5, C6, C9, C10, C11, C14, C16</t>
-  </si>
-  <si>
     <t>Capacitor_0603</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
     <t>22 µF ±10% 10V Ceramic Capacitor X5R 0805 (2012 Metric)</t>
   </si>
   <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>Capacitor_0805</t>
   </si>
   <si>
@@ -84,9 +78,6 @@
     <t>0.047 µF ±5% 25V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>RESISTOR0603</t>
   </si>
   <si>
@@ -96,36 +87,24 @@
     <t>5.23 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R5</t>
-  </si>
-  <si>
     <t>100R(0603 in )</t>
   </si>
   <si>
     <t>100 Ohms ±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric)  Thick Film</t>
   </si>
   <si>
-    <t>R6</t>
-  </si>
-  <si>
     <t>30.1K(1%)</t>
   </si>
   <si>
     <t>30.1 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
   </si>
   <si>
-    <t>R9</t>
-  </si>
-  <si>
     <t>261R(1%)</t>
   </si>
   <si>
     <t>Thick Film Resistors 0603 261ohm 1% Anti-Surge AEC-Q200</t>
   </si>
   <si>
-    <t>R10</t>
-  </si>
-  <si>
     <t>UMK107B7473KAHT</t>
   </si>
   <si>
@@ -139,6 +118,27 @@
   </si>
   <si>
     <t>RTT032610FTP</t>
+  </si>
+  <si>
+    <t>BQ-C1, C3, C4, C5, C6, C9, C10, C11, C14, C16</t>
+  </si>
+  <si>
+    <t>BQ-C2</t>
+  </si>
+  <si>
+    <t>BQ-C8</t>
+  </si>
+  <si>
+    <t>BQ-R5</t>
+  </si>
+  <si>
+    <t>BQ-R6</t>
+  </si>
+  <si>
+    <t>BQ-R9</t>
+  </si>
+  <si>
+    <t>BQ-R10</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,136 +583,136 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E2" s="4">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/BQ25895_BMS/Hardware/Project Outputs for BQ25895_BMS_Module/BQ25895_BMS_Module_BOM_UPLOAD.xlsx
+++ b/BQ25895_BMS/Hardware/Project Outputs for BQ25895_BMS_Module/BQ25895_BMS_Module_BOM_UPLOAD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_Files\BQ25895_BMS\BQ25895_BMS\Hardware\Project Outputs for BQ25895_BMS_Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221FE728-3B65-4342-A850-9D07B53AA51A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BBD50C-E460-44D1-A4D3-C70C4B16A4BC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10215" xr2:uid="{F7EEA39B-86C8-4295-B993-96B5F436FE9B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Comment</t>
   </si>
@@ -139,13 +139,61 @@
   </si>
   <si>
     <t>BQ-R10</t>
+  </si>
+  <si>
+    <t>0603B103J500NT</t>
+  </si>
+  <si>
+    <t>BQ-C7, C12, C15, C17</t>
+  </si>
+  <si>
+    <t>±5% 25V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>0.1uF(25V)</t>
+  </si>
+  <si>
+    <t>GRM188Z71C475KE21D</t>
+  </si>
+  <si>
+    <t>BQ-C13</t>
+  </si>
+  <si>
+    <t>4.7 µF ±10% 10V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>4.7uF(10V)</t>
+  </si>
+  <si>
+    <t>ERJPA3J511V</t>
+  </si>
+  <si>
+    <t>BQ-R7</t>
+  </si>
+  <si>
+    <t>0 Ohms ±5% 0.063W, 1/16W Chip Resistor 0603 (1608 Metric)  Thick Film</t>
+  </si>
+  <si>
+    <t>0R(0603 in )</t>
+  </si>
+  <si>
+    <t>RMCF0603JT10K0</t>
+  </si>
+  <si>
+    <t>BQ-R1, R2, R3, R4, R8, R11</t>
+  </si>
+  <si>
+    <t>10 kOhms ±5% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thick Film</t>
+  </si>
+  <si>
+    <t>10K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +206,20 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -204,10 +266,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -228,8 +291,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -542,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9CE6B7-E5C7-48D3-85C7-EE65E31EB397}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +621,7 @@
     <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -595,7 +661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -615,7 +681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -635,7 +701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -655,7 +721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -675,7 +741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -695,7 +761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -715,8 +781,94 @@
         <v>29</v>
       </c>
     </row>
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F9" r:id="rId1" display="https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_FH-Guangdong-Fenghua-Advanced-Tech-0603B103J500NT_C124567.html" xr:uid="{2CDA4DE2-D49A-43C8-94DE-E33AC074D71B}"/>
+    <hyperlink ref="F11" r:id="rId2" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_SEI-Stackpole-Elec-RMCF0603JT10K0_C238881.html" xr:uid="{5EC085AE-D278-4A18-AEA4-968CAB7BB9AE}"/>
+    <hyperlink ref="F12" r:id="rId3" display="https://lcsc.com/product-detail/Chip-Resistor-Surface-Mount_PANASONIC-ERJPA3J511V_C445818.html" xr:uid="{C428F94D-107C-4ED0-8CD3-3EBD7102DC74}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>